--- a/StoredScrapedData/DailyScrapingErrors.xlsx
+++ b/StoredScrapedData/DailyScrapingErrors.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="184">
   <si>
     <t>Name</t>
   </si>
@@ -82,6 +82,9 @@
     <t>KerrygoldΑλατισμένοΒούτυρο250g</t>
   </si>
   <si>
+    <t>QuakerΝιφάδεςΒρώμης500g</t>
+  </si>
+  <si>
     <t>Ψυγειοκαταψύκτης TESLA RS2300H1 άσπρο</t>
   </si>
   <si>
@@ -163,6 +166,69 @@
     <t>Men's Services, HAIRCUT Stylist</t>
   </si>
   <si>
+    <t>Από μένα αυτά…</t>
+  </si>
+  <si>
+    <t>Φιλαράκια, εραστές και το μεγάλο, φριχτό πράγμα</t>
+  </si>
+  <si>
+    <t>Να βρω ξανά του νήματος την άκρη...</t>
+  </si>
+  <si>
+    <t>Η τέχνη του να έχεις πάντα δίκιο</t>
+  </si>
+  <si>
+    <t>Ο πλουσιότερος άνθρωπος της Βαβυλώνας</t>
+  </si>
+  <si>
+    <t>Διαλειμματική νηστεία και αποφυγή νόσων</t>
+  </si>
+  <si>
+    <t>Το σύγχρονο λεξικό τσέπης για μαθητές Δημοτικού</t>
+  </si>
+  <si>
+    <t>Βοήθημα Γλωσσικά μυστήρια στη Β' Δημοτικού - Ζαχαρόπουλος (Εκδόσεις Παπαδόπουλος)</t>
+  </si>
+  <si>
+    <t>Βοήθημα Τεστάκια γλώσσας Γ' Δημοτικού - Ραπτόπουλος Κώστας Σ. (ΠΑΤΑΚΗΣ)</t>
+  </si>
+  <si>
+    <t>Βοήθημα Γλωσσικές Ασκήσεις Για Την Δ' Δημοτικού - Στράτου (ΣΑΒΒΑΛΑΣ)</t>
+  </si>
+  <si>
+    <t>Βοήθημα Γίνομαι άριστος στη γλώσσα Ε' Δημοτικού - Σάκκου (ΣΑΒΒΑΛΑΣ)</t>
+  </si>
+  <si>
+    <t>Βοήθημα Τεστάκια Μαθηματικών ΣΤ' Δημοτικού - Ραπτόπουλος (ΠΑΤΑΚΗΣ)</t>
+  </si>
+  <si>
+    <t>Βοήθημα Το λυσάρι Α΄ Γυμνασίου - Μιχαλάκης (ΕΚΔΟΣΕΙΣ ΛΥΣΑΡΙ)</t>
+  </si>
+  <si>
+    <t>Βοήθημα Kείμενα Νεοελληνικής Λογοτεχνίας Β' Γυμνασίου - Γεωργιάδου (ΜΕΤΑΙΧΜΙΟ)</t>
+  </si>
+  <si>
+    <t>Βοήθημα Ευριπίδη Ελένη Γ' Γυμνασίου - Παππάς (ΕΛΛΗΝΟΕΚΔΟΤΙΚΗ)</t>
+  </si>
+  <si>
+    <t>Βοήθημα Νέα ελληνικά Α' Λυκείου - Μητσέλος (Ελληνοεκδοτική)</t>
+  </si>
+  <si>
+    <t>Βοήθημα Νεοελληνική Γλώσσα &amp; Λογοτεχνία Β' Λυκείου (+Θεωρία Και Ασκήσεις + Απαντήσεις Ασκήσεων Θεωρίας Και Κριτηρίων) - Μάλαμα Ισιδώρα (ΧΑΤΖΗΘΩΜΑ)</t>
+  </si>
+  <si>
+    <t>Βοήθημα Νέα Ελληνικά - Θεωρία και Διδακτικές Προτάσεις Γ' Λυκείου - Σπύρος Μητσέλος (Ελληνοεκδοτική)</t>
+  </si>
+  <si>
+    <t>Το προξενιό της Ιουλίας</t>
+  </si>
+  <si>
+    <t>Το ναυάγιο</t>
+  </si>
+  <si>
+    <t>Το μωρό της σοφίτας</t>
+  </si>
+  <si>
     <t>Other bakery products</t>
   </si>
   <si>
@@ -193,6 +259,9 @@
     <t>Butter</t>
   </si>
   <si>
+    <t>Breakfast cereals</t>
+  </si>
+  <si>
     <t>Refrigerators, freezers and fridge-freezers</t>
   </si>
   <si>
@@ -247,6 +316,15 @@
     <t>Hairdressing for men</t>
   </si>
   <si>
+    <t>Other non-fiction books</t>
+  </si>
+  <si>
+    <t>Educational text books</t>
+  </si>
+  <si>
+    <t>Fiction books</t>
+  </si>
+  <si>
     <t>7days-mini-bake-rolls-pitsa-80g</t>
   </si>
   <si>
@@ -298,6 +376,9 @@
     <t>kerrygold-alatismeno-voutyro-250g</t>
   </si>
   <si>
+    <t>quaker-nifades-vromis-500g-1</t>
+  </si>
+  <si>
     <t>/products/white-goods/refrigeration/refrigerators/370043</t>
   </si>
   <si>
@@ -376,6 +457,69 @@
     <t>https://novella.com.cy/#services</t>
   </si>
   <si>
+    <t>https://www.public.cy/public/v1/mm/productPage?sku=1796703&amp;locale=el</t>
+  </si>
+  <si>
+    <t>https://www.public.cy/public/v1/mm/productPage?sku=1807476&amp;locale=el</t>
+  </si>
+  <si>
+    <t>https://www.public.cy/public/v1/mm/productPage?sku=1707460&amp;locale=el</t>
+  </si>
+  <si>
+    <t>https://www.public.cy/public/v1/mm/productPage?sku=0610150&amp;locale=el</t>
+  </si>
+  <si>
+    <t>https://www.public.cy/public/v1/mm/productPage?sku=1572503&amp;locale=el</t>
+  </si>
+  <si>
+    <t>https://www.public.cy/public/v1/mm/productPage?sku=1362332&amp;locale=el</t>
+  </si>
+  <si>
+    <t>https://www.public.cy/public/v1/mm/productPage?sku=1411398&amp;locale=el</t>
+  </si>
+  <si>
+    <t>https://www.public.cy/public/v1/mm/productPage?sku=1712720&amp;locale=el</t>
+  </si>
+  <si>
+    <t>https://www.public.cy/public/v1/mm/productPage?sku=1314422&amp;locale=el</t>
+  </si>
+  <si>
+    <t>https://www.public.cy/public/v1/mm/productPage?sku=0701249&amp;locale=el</t>
+  </si>
+  <si>
+    <t>https://www.public.cy/public/v1/mm/productPage?sku=0700495&amp;locale=el</t>
+  </si>
+  <si>
+    <t>https://www.public.cy/public/v1/mm/productPage?sku=1228653&amp;locale=el</t>
+  </si>
+  <si>
+    <t>https://www.public.cy/public/v1/mm/productPage?sku=1639194&amp;locale=el</t>
+  </si>
+  <si>
+    <t>https://www.public.cy/public/v1/mm/productPage?sku=1295401&amp;locale=el</t>
+  </si>
+  <si>
+    <t>https://www.public.cy/public/v1/mm/productPage?sku=0700468&amp;locale=el</t>
+  </si>
+  <si>
+    <t>https://www.public.cy/public/v1/mm/productPage?sku=1718657&amp;locale=el</t>
+  </si>
+  <si>
+    <t>https://www.public.cy/public/v1/mm/productPage?sku=1640444&amp;locale=el</t>
+  </si>
+  <si>
+    <t>https://www.public.cy/public/v1/mm/productPage?sku=1828482&amp;locale=el</t>
+  </si>
+  <si>
+    <t>https://www.public.cy/public/v1/mm/productPage?sku=1506056&amp;locale=el</t>
+  </si>
+  <si>
+    <t>https://www.public.cy/public/v1/mm/productPage?sku=1598779&amp;locale=el</t>
+  </si>
+  <si>
+    <t>https://www.public.cy/public/v1/mm/productPage?sku=1807718&amp;locale=el</t>
+  </si>
+  <si>
     <t>FOOD AND NON-ALCOHOLIC BEVERAGES</t>
   </si>
   <si>
@@ -394,6 +538,9 @@
     <t>MISCELLANEOUS GOODS AND SERVICES</t>
   </si>
   <si>
+    <t>RECREATION AND CULTURE</t>
+  </si>
+  <si>
     <t>SupermarketCy</t>
   </si>
   <si>
@@ -416,6 +563,9 @@
   </si>
   <si>
     <t>Novella</t>
+  </si>
+  <si>
+    <t>Public</t>
   </si>
 </sst>
 </file>
@@ -786,7 +936,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E137"/>
+  <dimension ref="A1:E159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -814,16 +964,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="E2" t="s">
-        <v>126</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -831,16 +981,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="E3" t="s">
-        <v>126</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -848,16 +998,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="E4" t="s">
-        <v>126</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -865,16 +1015,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="E5" t="s">
-        <v>126</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -882,16 +1032,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="E6" t="s">
-        <v>126</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -899,16 +1049,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="E7" t="s">
-        <v>126</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -916,16 +1066,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="E8" t="s">
-        <v>126</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -933,16 +1083,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="E9" t="s">
-        <v>126</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -950,16 +1100,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="E10" t="s">
-        <v>126</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -967,16 +1117,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="E11" t="s">
-        <v>126</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -984,16 +1134,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="D12" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="E12" t="s">
-        <v>126</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1001,16 +1151,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="D13" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="E13" t="s">
-        <v>126</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1018,16 +1168,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="D14" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="E14" t="s">
-        <v>126</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1035,16 +1185,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="D15" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="E15" t="s">
-        <v>126</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1052,16 +1202,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="D16" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="E16" t="s">
-        <v>126</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1069,16 +1219,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="D17" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="E17" t="s">
-        <v>126</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1086,16 +1236,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="D18" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="E18" t="s">
-        <v>126</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1103,16 +1253,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="D19" t="s">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="E19" t="s">
-        <v>127</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1120,16 +1270,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="D20" t="s">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="E20" t="s">
-        <v>127</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1137,16 +1287,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="D21" t="s">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="E21" t="s">
-        <v>127</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1154,16 +1304,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="D22" t="s">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="E22" t="s">
-        <v>127</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1171,16 +1321,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="D23" t="s">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="E23" t="s">
-        <v>127</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1188,16 +1338,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="D24" t="s">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="E24" t="s">
-        <v>127</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1205,16 +1355,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="D25" t="s">
-        <v>122</v>
+        <v>169</v>
       </c>
       <c r="E25" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1222,16 +1372,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="D26" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="E26" t="s">
-        <v>128</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1239,16 +1389,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="D27" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="E27" t="s">
-        <v>128</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1256,16 +1406,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="D28" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="E28" t="s">
-        <v>128</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1273,16 +1423,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="C29" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="D29" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="E29" t="s">
-        <v>128</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1290,16 +1440,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="C30" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="D30" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="E30" t="s">
-        <v>128</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1307,16 +1457,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="C31" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="D31" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="E31" t="s">
-        <v>128</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1324,16 +1474,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="C32" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="D32" t="s">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="E32" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1341,16 +1491,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="C33" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="D33" t="s">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="E33" t="s">
-        <v>129</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1358,16 +1508,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
+      </c>
+      <c r="C34" t="s">
+        <v>135</v>
       </c>
       <c r="D34" t="s">
-        <v>124</v>
+        <v>171</v>
       </c>
       <c r="E34" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1375,16 +1525,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" t="s">
-        <v>110</v>
+        <v>95</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="D35" t="s">
-        <v>122</v>
+        <v>172</v>
       </c>
       <c r="E35" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1392,16 +1542,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="C36" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="D36" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="E36" t="s">
-        <v>131</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1409,16 +1559,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="D37" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="E37" t="s">
-        <v>131</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1426,16 +1576,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="C38" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="D38" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="E38" t="s">
-        <v>131</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1443,16 +1593,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="C39" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="D39" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="E39" t="s">
-        <v>131</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1460,16 +1610,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="C40" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="D40" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="E40" t="s">
-        <v>131</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1477,16 +1627,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="D41" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="E41" t="s">
-        <v>131</v>
+        <v>180</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1494,16 +1644,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="C42" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="D42" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="E42" t="s">
-        <v>131</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1511,16 +1661,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C43" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="D43" t="s">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="E43" t="s">
-        <v>132</v>
+        <v>180</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1528,798 +1678,798 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>75</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>119</v>
+        <v>97</v>
+      </c>
+      <c r="C44" t="s">
+        <v>145</v>
       </c>
       <c r="D44" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="E44" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D45" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E45" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D46" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E46" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D47" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E47" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D48" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E48" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D49" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E49" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D50" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E50" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D51" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E51" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D52" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E52" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B53" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D53" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E53" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B54" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D54" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E54" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B55" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D55" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E55" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B56" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D56" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E56" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B57" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D57" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E57" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B58" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D58" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E58" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B59" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D59" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E59" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B60" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D60" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E60" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B61" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D61" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E61" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B62" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D62" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E62" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B63" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D63" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E63" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B64" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D64" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E64" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B65" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D65" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E65" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B66" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D66" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E66" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B67" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D67" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E67" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B68" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D68" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B69" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D69" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E69" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B70" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D70" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E70" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B71" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D71" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E71" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B72" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D72" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E72" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D73" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E73" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B74" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D74" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E74" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B75" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D75" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E75" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B76" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D76" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E76" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B77" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D77" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E77" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B78" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D78" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E78" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B79" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D79" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E79" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B80" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D80" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E80" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B81" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D81" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E81" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B82" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D82" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E82" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B83" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D83" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E83" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B84" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D84" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E84" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B85" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D85" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E85" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B86" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D86" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E86" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B87" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D87" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E87" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B88" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D88" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E88" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B89" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D89" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E89" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B90" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D90" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E90" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2327,897 +2477,1292 @@
         <v>48</v>
       </c>
       <c r="B91" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D91" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E91" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B92" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D92" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E92" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B93" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D93" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E93" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B94" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D94" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E94" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B95" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D95" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E95" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B96" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D96" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E96" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B97" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D97" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E97" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B98" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D98" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E98" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B99" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D99" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E99" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B100" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D100" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E100" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B101" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D101" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E101" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B102" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D102" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E102" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B103" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D103" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E103" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B104" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D104" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E104" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B105" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D105" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E105" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B106" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D106" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E106" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B107" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D107" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E107" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B108" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D108" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E108" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B109" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D109" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E109" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B110" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D110" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E110" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B111" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D111" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E111" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B112" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D112" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E112" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B113" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D113" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E113" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B114" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D114" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E114" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D115" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E115" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B116" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D116" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E116" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B117" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D117" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E117" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B118" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D118" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E118" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B119" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D119" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E119" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B120" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D120" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E120" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B121" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D121" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E121" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B122" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D122" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E122" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B123" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D123" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E123" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B124" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D124" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E124" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B125" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D125" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E125" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B126" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D126" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E126" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B127" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D127" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E127" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B128" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D128" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E128" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B129" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D129" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E129" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B130" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D130" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E130" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B131" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D131" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E131" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B132" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D132" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E132" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B133" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D133" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E133" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B134" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D134" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E134" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B135" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D135" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E135" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B136" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D136" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E136" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B137" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D137" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E137" t="s">
-        <v>133</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" t="s">
+        <v>49</v>
+      </c>
+      <c r="B138" t="s">
+        <v>99</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D138" t="s">
+        <v>173</v>
+      </c>
+      <c r="E138" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" t="s">
+        <v>50</v>
+      </c>
+      <c r="B139" t="s">
+        <v>100</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D139" t="s">
+        <v>174</v>
+      </c>
+      <c r="E139" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" t="s">
+        <v>51</v>
+      </c>
+      <c r="B140" t="s">
+        <v>100</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D140" t="s">
+        <v>174</v>
+      </c>
+      <c r="E140" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" t="s">
+        <v>52</v>
+      </c>
+      <c r="B141" t="s">
+        <v>100</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D141" t="s">
+        <v>174</v>
+      </c>
+      <c r="E141" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" t="s">
+        <v>53</v>
+      </c>
+      <c r="B142" t="s">
+        <v>100</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D142" t="s">
+        <v>174</v>
+      </c>
+      <c r="E142" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" t="s">
+        <v>54</v>
+      </c>
+      <c r="B143" t="s">
+        <v>100</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D143" t="s">
+        <v>174</v>
+      </c>
+      <c r="E143" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" t="s">
+        <v>55</v>
+      </c>
+      <c r="B144" t="s">
+        <v>100</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D144" t="s">
+        <v>174</v>
+      </c>
+      <c r="E144" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" t="s">
+        <v>56</v>
+      </c>
+      <c r="B145" t="s">
+        <v>101</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D145" t="s">
+        <v>174</v>
+      </c>
+      <c r="E145" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" t="s">
+        <v>57</v>
+      </c>
+      <c r="B146" t="s">
+        <v>101</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D146" t="s">
+        <v>174</v>
+      </c>
+      <c r="E146" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" t="s">
+        <v>58</v>
+      </c>
+      <c r="B147" t="s">
+        <v>101</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D147" t="s">
+        <v>174</v>
+      </c>
+      <c r="E147" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" t="s">
+        <v>59</v>
+      </c>
+      <c r="B148" t="s">
+        <v>101</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D148" t="s">
+        <v>174</v>
+      </c>
+      <c r="E148" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" t="s">
+        <v>60</v>
+      </c>
+      <c r="B149" t="s">
+        <v>101</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D149" t="s">
+        <v>174</v>
+      </c>
+      <c r="E149" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" t="s">
+        <v>61</v>
+      </c>
+      <c r="B150" t="s">
+        <v>101</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D150" t="s">
+        <v>174</v>
+      </c>
+      <c r="E150" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" t="s">
+        <v>62</v>
+      </c>
+      <c r="B151" t="s">
+        <v>101</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D151" t="s">
+        <v>174</v>
+      </c>
+      <c r="E151" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" t="s">
+        <v>63</v>
+      </c>
+      <c r="B152" t="s">
+        <v>101</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D152" t="s">
+        <v>174</v>
+      </c>
+      <c r="E152" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" t="s">
+        <v>64</v>
+      </c>
+      <c r="B153" t="s">
+        <v>101</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D153" t="s">
+        <v>174</v>
+      </c>
+      <c r="E153" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" t="s">
+        <v>65</v>
+      </c>
+      <c r="B154" t="s">
+        <v>101</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D154" t="s">
+        <v>174</v>
+      </c>
+      <c r="E154" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" t="s">
+        <v>66</v>
+      </c>
+      <c r="B155" t="s">
+        <v>101</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D155" t="s">
+        <v>174</v>
+      </c>
+      <c r="E155" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" t="s">
+        <v>67</v>
+      </c>
+      <c r="B156" t="s">
+        <v>101</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D156" t="s">
+        <v>174</v>
+      </c>
+      <c r="E156" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" t="s">
+        <v>68</v>
+      </c>
+      <c r="B157" t="s">
+        <v>102</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D157" t="s">
+        <v>174</v>
+      </c>
+      <c r="E157" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" t="s">
+        <v>69</v>
+      </c>
+      <c r="B158" t="s">
+        <v>102</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D158" t="s">
+        <v>174</v>
+      </c>
+      <c r="E158" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" t="s">
+        <v>70</v>
+      </c>
+      <c r="B159" t="s">
+        <v>102</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D159" t="s">
+        <v>174</v>
+      </c>
+      <c r="E159" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C34" r:id="rId1"/>
-    <hyperlink ref="C44" r:id="rId2" location="services"/>
-    <hyperlink ref="C45" r:id="rId3" location="services"/>
-    <hyperlink ref="C46" r:id="rId4" location="services"/>
-    <hyperlink ref="C47" r:id="rId5" location="services"/>
-    <hyperlink ref="C48" r:id="rId6" location="services"/>
-    <hyperlink ref="C49" r:id="rId7" location="services"/>
-    <hyperlink ref="C50" r:id="rId8" location="services"/>
-    <hyperlink ref="C51" r:id="rId9" location="services"/>
-    <hyperlink ref="C52" r:id="rId10" location="services"/>
-    <hyperlink ref="C53" r:id="rId11" location="services"/>
-    <hyperlink ref="C54" r:id="rId12" location="services"/>
-    <hyperlink ref="C55" r:id="rId13" location="services"/>
-    <hyperlink ref="C56" r:id="rId14" location="services"/>
-    <hyperlink ref="C57" r:id="rId15" location="services"/>
-    <hyperlink ref="C58" r:id="rId16" location="services"/>
-    <hyperlink ref="C59" r:id="rId17" location="services"/>
-    <hyperlink ref="C60" r:id="rId18" location="services"/>
-    <hyperlink ref="C61" r:id="rId19" location="services"/>
-    <hyperlink ref="C62" r:id="rId20" location="services"/>
-    <hyperlink ref="C63" r:id="rId21" location="services"/>
-    <hyperlink ref="C64" r:id="rId22" location="services"/>
-    <hyperlink ref="C65" r:id="rId23" location="services"/>
-    <hyperlink ref="C66" r:id="rId24" location="services"/>
-    <hyperlink ref="C67" r:id="rId25" location="services"/>
-    <hyperlink ref="C68" r:id="rId26" location="services"/>
-    <hyperlink ref="C69" r:id="rId27" location="services"/>
-    <hyperlink ref="C70" r:id="rId28" location="services"/>
-    <hyperlink ref="C71" r:id="rId29" location="services"/>
-    <hyperlink ref="C72" r:id="rId30" location="services"/>
-    <hyperlink ref="C73" r:id="rId31" location="services"/>
-    <hyperlink ref="C74" r:id="rId32" location="services"/>
-    <hyperlink ref="C75" r:id="rId33" location="services"/>
-    <hyperlink ref="C76" r:id="rId34" location="services"/>
-    <hyperlink ref="C77" r:id="rId35" location="services"/>
-    <hyperlink ref="C78" r:id="rId36" location="services"/>
-    <hyperlink ref="C79" r:id="rId37" location="services"/>
-    <hyperlink ref="C80" r:id="rId38" location="services"/>
-    <hyperlink ref="C81" r:id="rId39" location="services"/>
-    <hyperlink ref="C82" r:id="rId40" location="services"/>
-    <hyperlink ref="C83" r:id="rId41" location="services"/>
-    <hyperlink ref="C84" r:id="rId42" location="services"/>
-    <hyperlink ref="C85" r:id="rId43" location="services"/>
-    <hyperlink ref="C86" r:id="rId44" location="services"/>
-    <hyperlink ref="C87" r:id="rId45" location="services"/>
-    <hyperlink ref="C88" r:id="rId46" location="services"/>
-    <hyperlink ref="C89" r:id="rId47" location="services"/>
-    <hyperlink ref="C90" r:id="rId48" location="services"/>
-    <hyperlink ref="C91" r:id="rId49" location="services"/>
-    <hyperlink ref="C92" r:id="rId50" location="services"/>
-    <hyperlink ref="C93" r:id="rId51" location="services"/>
-    <hyperlink ref="C94" r:id="rId52" location="services"/>
-    <hyperlink ref="C95" r:id="rId53" location="services"/>
-    <hyperlink ref="C96" r:id="rId54" location="services"/>
-    <hyperlink ref="C97" r:id="rId55" location="services"/>
-    <hyperlink ref="C98" r:id="rId56" location="services"/>
-    <hyperlink ref="C99" r:id="rId57" location="services"/>
-    <hyperlink ref="C100" r:id="rId58" location="services"/>
-    <hyperlink ref="C101" r:id="rId59" location="services"/>
-    <hyperlink ref="C102" r:id="rId60" location="services"/>
-    <hyperlink ref="C103" r:id="rId61" location="services"/>
-    <hyperlink ref="C104" r:id="rId62" location="services"/>
-    <hyperlink ref="C105" r:id="rId63" location="services"/>
-    <hyperlink ref="C106" r:id="rId64" location="services"/>
-    <hyperlink ref="C107" r:id="rId65" location="services"/>
-    <hyperlink ref="C108" r:id="rId66" location="services"/>
-    <hyperlink ref="C109" r:id="rId67" location="services"/>
-    <hyperlink ref="C110" r:id="rId68" location="services"/>
-    <hyperlink ref="C111" r:id="rId69" location="services"/>
-    <hyperlink ref="C112" r:id="rId70" location="services"/>
-    <hyperlink ref="C113" r:id="rId71" location="services"/>
-    <hyperlink ref="C114" r:id="rId72" location="services"/>
-    <hyperlink ref="C115" r:id="rId73" location="services"/>
-    <hyperlink ref="C116" r:id="rId74" location="services"/>
-    <hyperlink ref="C117" r:id="rId75" location="services"/>
-    <hyperlink ref="C118" r:id="rId76" location="services"/>
-    <hyperlink ref="C119" r:id="rId77" location="services"/>
-    <hyperlink ref="C120" r:id="rId78" location="services"/>
-    <hyperlink ref="C121" r:id="rId79" location="services"/>
-    <hyperlink ref="C122" r:id="rId80" location="services"/>
-    <hyperlink ref="C123" r:id="rId81" location="services"/>
-    <hyperlink ref="C124" r:id="rId82" location="services"/>
-    <hyperlink ref="C125" r:id="rId83" location="services"/>
-    <hyperlink ref="C126" r:id="rId84" location="services"/>
-    <hyperlink ref="C127" r:id="rId85" location="services"/>
-    <hyperlink ref="C128" r:id="rId86" location="services"/>
-    <hyperlink ref="C129" r:id="rId87" location="services"/>
-    <hyperlink ref="C130" r:id="rId88" location="services"/>
-    <hyperlink ref="C131" r:id="rId89" location="services"/>
-    <hyperlink ref="C132" r:id="rId90" location="services"/>
-    <hyperlink ref="C133" r:id="rId91" location="services"/>
-    <hyperlink ref="C134" r:id="rId92" location="services"/>
-    <hyperlink ref="C135" r:id="rId93" location="services"/>
-    <hyperlink ref="C136" r:id="rId94" location="services"/>
-    <hyperlink ref="C137" r:id="rId95" location="services"/>
+    <hyperlink ref="C35" r:id="rId1"/>
+    <hyperlink ref="C45" r:id="rId2" location="services"/>
+    <hyperlink ref="C46" r:id="rId3" location="services"/>
+    <hyperlink ref="C47" r:id="rId4" location="services"/>
+    <hyperlink ref="C48" r:id="rId5" location="services"/>
+    <hyperlink ref="C49" r:id="rId6" location="services"/>
+    <hyperlink ref="C50" r:id="rId7" location="services"/>
+    <hyperlink ref="C51" r:id="rId8" location="services"/>
+    <hyperlink ref="C52" r:id="rId9" location="services"/>
+    <hyperlink ref="C53" r:id="rId10" location="services"/>
+    <hyperlink ref="C54" r:id="rId11" location="services"/>
+    <hyperlink ref="C55" r:id="rId12" location="services"/>
+    <hyperlink ref="C56" r:id="rId13" location="services"/>
+    <hyperlink ref="C57" r:id="rId14" location="services"/>
+    <hyperlink ref="C58" r:id="rId15" location="services"/>
+    <hyperlink ref="C59" r:id="rId16" location="services"/>
+    <hyperlink ref="C60" r:id="rId17" location="services"/>
+    <hyperlink ref="C61" r:id="rId18" location="services"/>
+    <hyperlink ref="C62" r:id="rId19" location="services"/>
+    <hyperlink ref="C63" r:id="rId20" location="services"/>
+    <hyperlink ref="C64" r:id="rId21" location="services"/>
+    <hyperlink ref="C65" r:id="rId22" location="services"/>
+    <hyperlink ref="C66" r:id="rId23" location="services"/>
+    <hyperlink ref="C67" r:id="rId24" location="services"/>
+    <hyperlink ref="C68" r:id="rId25" location="services"/>
+    <hyperlink ref="C69" r:id="rId26" location="services"/>
+    <hyperlink ref="C70" r:id="rId27" location="services"/>
+    <hyperlink ref="C71" r:id="rId28" location="services"/>
+    <hyperlink ref="C72" r:id="rId29" location="services"/>
+    <hyperlink ref="C73" r:id="rId30" location="services"/>
+    <hyperlink ref="C74" r:id="rId31" location="services"/>
+    <hyperlink ref="C75" r:id="rId32" location="services"/>
+    <hyperlink ref="C76" r:id="rId33" location="services"/>
+    <hyperlink ref="C77" r:id="rId34" location="services"/>
+    <hyperlink ref="C78" r:id="rId35" location="services"/>
+    <hyperlink ref="C79" r:id="rId36" location="services"/>
+    <hyperlink ref="C80" r:id="rId37" location="services"/>
+    <hyperlink ref="C81" r:id="rId38" location="services"/>
+    <hyperlink ref="C82" r:id="rId39" location="services"/>
+    <hyperlink ref="C83" r:id="rId40" location="services"/>
+    <hyperlink ref="C84" r:id="rId41" location="services"/>
+    <hyperlink ref="C85" r:id="rId42" location="services"/>
+    <hyperlink ref="C86" r:id="rId43" location="services"/>
+    <hyperlink ref="C87" r:id="rId44" location="services"/>
+    <hyperlink ref="C88" r:id="rId45" location="services"/>
+    <hyperlink ref="C89" r:id="rId46" location="services"/>
+    <hyperlink ref="C90" r:id="rId47" location="services"/>
+    <hyperlink ref="C91" r:id="rId48" location="services"/>
+    <hyperlink ref="C92" r:id="rId49" location="services"/>
+    <hyperlink ref="C93" r:id="rId50" location="services"/>
+    <hyperlink ref="C94" r:id="rId51" location="services"/>
+    <hyperlink ref="C95" r:id="rId52" location="services"/>
+    <hyperlink ref="C96" r:id="rId53" location="services"/>
+    <hyperlink ref="C97" r:id="rId54" location="services"/>
+    <hyperlink ref="C98" r:id="rId55" location="services"/>
+    <hyperlink ref="C99" r:id="rId56" location="services"/>
+    <hyperlink ref="C100" r:id="rId57" location="services"/>
+    <hyperlink ref="C101" r:id="rId58" location="services"/>
+    <hyperlink ref="C102" r:id="rId59" location="services"/>
+    <hyperlink ref="C103" r:id="rId60" location="services"/>
+    <hyperlink ref="C104" r:id="rId61" location="services"/>
+    <hyperlink ref="C105" r:id="rId62" location="services"/>
+    <hyperlink ref="C106" r:id="rId63" location="services"/>
+    <hyperlink ref="C107" r:id="rId64" location="services"/>
+    <hyperlink ref="C108" r:id="rId65" location="services"/>
+    <hyperlink ref="C109" r:id="rId66" location="services"/>
+    <hyperlink ref="C110" r:id="rId67" location="services"/>
+    <hyperlink ref="C111" r:id="rId68" location="services"/>
+    <hyperlink ref="C112" r:id="rId69" location="services"/>
+    <hyperlink ref="C113" r:id="rId70" location="services"/>
+    <hyperlink ref="C114" r:id="rId71" location="services"/>
+    <hyperlink ref="C115" r:id="rId72" location="services"/>
+    <hyperlink ref="C116" r:id="rId73" location="services"/>
+    <hyperlink ref="C117" r:id="rId74" location="services"/>
+    <hyperlink ref="C118" r:id="rId75" location="services"/>
+    <hyperlink ref="C119" r:id="rId76" location="services"/>
+    <hyperlink ref="C120" r:id="rId77" location="services"/>
+    <hyperlink ref="C121" r:id="rId78" location="services"/>
+    <hyperlink ref="C122" r:id="rId79" location="services"/>
+    <hyperlink ref="C123" r:id="rId80" location="services"/>
+    <hyperlink ref="C124" r:id="rId81" location="services"/>
+    <hyperlink ref="C125" r:id="rId82" location="services"/>
+    <hyperlink ref="C126" r:id="rId83" location="services"/>
+    <hyperlink ref="C127" r:id="rId84" location="services"/>
+    <hyperlink ref="C128" r:id="rId85" location="services"/>
+    <hyperlink ref="C129" r:id="rId86" location="services"/>
+    <hyperlink ref="C130" r:id="rId87" location="services"/>
+    <hyperlink ref="C131" r:id="rId88" location="services"/>
+    <hyperlink ref="C132" r:id="rId89" location="services"/>
+    <hyperlink ref="C133" r:id="rId90" location="services"/>
+    <hyperlink ref="C134" r:id="rId91" location="services"/>
+    <hyperlink ref="C135" r:id="rId92" location="services"/>
+    <hyperlink ref="C136" r:id="rId93" location="services"/>
+    <hyperlink ref="C137" r:id="rId94" location="services"/>
+    <hyperlink ref="C138" r:id="rId95" location="services"/>
+    <hyperlink ref="C139" r:id="rId96"/>
+    <hyperlink ref="C140" r:id="rId97"/>
+    <hyperlink ref="C141" r:id="rId98"/>
+    <hyperlink ref="C142" r:id="rId99"/>
+    <hyperlink ref="C143" r:id="rId100"/>
+    <hyperlink ref="C144" r:id="rId101"/>
+    <hyperlink ref="C145" r:id="rId102"/>
+    <hyperlink ref="C146" r:id="rId103"/>
+    <hyperlink ref="C147" r:id="rId104"/>
+    <hyperlink ref="C148" r:id="rId105"/>
+    <hyperlink ref="C149" r:id="rId106"/>
+    <hyperlink ref="C150" r:id="rId107"/>
+    <hyperlink ref="C151" r:id="rId108"/>
+    <hyperlink ref="C152" r:id="rId109"/>
+    <hyperlink ref="C153" r:id="rId110"/>
+    <hyperlink ref="C154" r:id="rId111"/>
+    <hyperlink ref="C155" r:id="rId112"/>
+    <hyperlink ref="C156" r:id="rId113"/>
+    <hyperlink ref="C157" r:id="rId114"/>
+    <hyperlink ref="C158" r:id="rId115"/>
+    <hyperlink ref="C159" r:id="rId116"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StoredScrapedData/DailyScrapingErrors.xlsx
+++ b/StoredScrapedData/DailyScrapingErrors.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="180">
   <si>
     <t>Name</t>
   </si>
@@ -160,6 +160,9 @@
     <t>KTM 390 ADVENTURE 2022 - Black</t>
   </si>
   <si>
+    <t>Μαθαίνω να φροντίζω τον εαυτό μου</t>
+  </si>
+  <si>
     <t>Από μένα αυτά…</t>
   </si>
   <si>
@@ -304,12 +307,12 @@
     <t>Motor cycles</t>
   </si>
   <si>
+    <t>Educational text books</t>
+  </si>
+  <si>
     <t>Other non-fiction books</t>
   </si>
   <si>
-    <t>Educational text books</t>
-  </si>
-  <si>
     <t>Fiction books</t>
   </si>
   <si>
@@ -442,6 +445,9 @@
     <t>/ktm-rc-390-orange-2023.html</t>
   </si>
   <si>
+    <t>https://www.parga.com.cy/el/katigories-vivliwn/9786180336856-metaixmio-mathainw-na-frontizw-ton-eauto-mou-114192#sthash.zLzGBdIi.dpbs</t>
+  </si>
+  <si>
     <t>https://www.public.cy/public/v1/mm/productPage?sku=1796703&amp;locale=el</t>
   </si>
   <si>
@@ -542,6 +548,9 @@
   </si>
   <si>
     <t>MotoRace</t>
+  </si>
+  <si>
+    <t>Parga</t>
   </si>
   <si>
     <t>Public</t>
@@ -915,7 +924,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -943,16 +952,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -960,16 +969,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -977,16 +986,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -994,16 +1003,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1011,16 +1020,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E6" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1028,16 +1037,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1045,16 +1054,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1062,16 +1071,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D9" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1079,16 +1088,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D10" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E10" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1096,16 +1105,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D11" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E11" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1113,16 +1122,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D12" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E12" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1130,16 +1139,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D13" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E13" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1147,16 +1156,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D14" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E14" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1164,16 +1173,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D15" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E15" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1181,16 +1190,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D16" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E16" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1198,16 +1207,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D17" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E17" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1215,16 +1224,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D18" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E18" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1232,16 +1241,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D19" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E19" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1249,16 +1258,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D20" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E20" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1266,16 +1275,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D21" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E21" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1283,16 +1292,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D22" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E22" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1300,16 +1309,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D23" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E23" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1317,16 +1326,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D24" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E24" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1334,16 +1343,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C25" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D25" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E25" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1351,16 +1360,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C26" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D26" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E26" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1368,16 +1377,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D27" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E27" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1385,16 +1394,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D28" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E28" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1402,16 +1411,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C29" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D29" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E29" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1419,16 +1428,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C30" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D30" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E30" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1436,16 +1445,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C31" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D31" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E31" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1453,16 +1462,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D32" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E32" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1470,16 +1479,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C33" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D33" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E33" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1487,16 +1496,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C34" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D34" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E34" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1504,16 +1513,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D35" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E35" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1521,16 +1530,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C36" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D36" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E36" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1538,16 +1547,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D37" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E37" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1555,16 +1564,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C38" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D38" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E38" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1572,16 +1581,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C39" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D39" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E39" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1589,16 +1598,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C40" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D40" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E40" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1606,16 +1615,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C41" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D41" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E41" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1623,16 +1632,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C42" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D42" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E42" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1640,16 +1649,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C43" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D43" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E43" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1657,16 +1666,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C44" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D44" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E44" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1674,16 +1683,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D45" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E45" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1691,16 +1700,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D46" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E46" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1708,16 +1717,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E47" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1725,16 +1734,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E48" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1742,16 +1751,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E49" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1759,16 +1768,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D50" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E50" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1776,16 +1785,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D51" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E51" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1796,13 +1805,13 @@
         <v>97</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D52" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E52" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1813,13 +1822,13 @@
         <v>97</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D53" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E53" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1830,13 +1839,13 @@
         <v>97</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D54" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E54" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1847,13 +1856,13 @@
         <v>97</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D55" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E55" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1864,13 +1873,13 @@
         <v>97</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D56" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E56" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1881,13 +1890,13 @@
         <v>97</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D57" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E57" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1898,13 +1907,13 @@
         <v>97</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D58" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E58" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1915,13 +1924,13 @@
         <v>97</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D59" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E59" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1932,13 +1941,13 @@
         <v>97</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D60" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E60" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1949,13 +1958,13 @@
         <v>97</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D61" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E61" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1966,13 +1975,13 @@
         <v>97</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D62" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E62" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1980,16 +1989,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D63" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E63" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1997,16 +2006,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D64" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E64" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2014,22 +2023,39 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D65" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E65" t="s">
-        <v>176</v>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" t="s">
+        <v>99</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D66" t="s">
+        <v>170</v>
+      </c>
+      <c r="E66" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C35" r:id="rId1"/>
-    <hyperlink ref="C45" r:id="rId2"/>
+    <hyperlink ref="C45" r:id="rId2" location="sthash.zLzGBdIi.dpbs"/>
     <hyperlink ref="C46" r:id="rId3"/>
     <hyperlink ref="C47" r:id="rId4"/>
     <hyperlink ref="C48" r:id="rId5"/>
@@ -2050,6 +2076,7 @@
     <hyperlink ref="C63" r:id="rId20"/>
     <hyperlink ref="C64" r:id="rId21"/>
     <hyperlink ref="C65" r:id="rId22"/>
+    <hyperlink ref="C66" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StoredScrapedData/DailyScrapingErrors.xlsx
+++ b/StoredScrapedData/DailyScrapingErrors.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="177">
   <si>
     <t>Name</t>
   </si>
@@ -160,9 +160,6 @@
     <t>KTM 390 ADVENTURE 2022 - Black</t>
   </si>
   <si>
-    <t>Μαθαίνω να φροντίζω τον εαυτό μου</t>
-  </si>
-  <si>
     <t>Από μένα αυτά…</t>
   </si>
   <si>
@@ -307,12 +304,12 @@
     <t>Motor cycles</t>
   </si>
   <si>
+    <t>Other non-fiction books</t>
+  </si>
+  <si>
     <t>Educational text books</t>
   </si>
   <si>
-    <t>Other non-fiction books</t>
-  </si>
-  <si>
     <t>Fiction books</t>
   </si>
   <si>
@@ -445,9 +442,6 @@
     <t>/ktm-rc-390-orange-2023.html</t>
   </si>
   <si>
-    <t>https://www.parga.com.cy/el/katigories-vivliwn/9786180336856-metaixmio-mathainw-na-frontizw-ton-eauto-mou-114192#sthash.zLzGBdIi.dpbs</t>
-  </si>
-  <si>
     <t>https://www.public.cy/public/v1/mm/productPage?sku=1796703&amp;locale=el</t>
   </si>
   <si>
@@ -548,9 +542,6 @@
   </si>
   <si>
     <t>MotoRace</t>
-  </si>
-  <si>
-    <t>Parga</t>
   </si>
   <si>
     <t>Public</t>
@@ -924,7 +915,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -952,16 +943,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -969,16 +960,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -986,16 +977,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1003,16 +994,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1020,16 +1011,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1037,16 +1028,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1054,16 +1045,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1071,16 +1062,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1088,16 +1079,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1105,16 +1096,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1122,16 +1113,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1139,16 +1130,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1156,16 +1147,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1173,16 +1164,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1190,16 +1181,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1207,16 +1198,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E17" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1224,16 +1215,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1241,16 +1232,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1258,16 +1249,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1275,16 +1266,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D21" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1292,16 +1283,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D22" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E22" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1309,16 +1300,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D23" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1326,16 +1317,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E24" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1343,16 +1334,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E25" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1360,16 +1351,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E26" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1377,16 +1368,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D27" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E27" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1394,16 +1385,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D28" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E28" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1411,16 +1402,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D29" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E29" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1428,16 +1419,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D30" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E30" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1445,16 +1436,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E31" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1462,16 +1453,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D32" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E32" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1479,16 +1470,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D33" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E33" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1496,16 +1487,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D34" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E34" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1513,16 +1504,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E35" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1530,16 +1521,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D36" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E36" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1547,16 +1538,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D37" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E37" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1564,16 +1555,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D38" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E38" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1581,16 +1572,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D39" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E39" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1598,16 +1589,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D40" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E40" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1615,16 +1606,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D41" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E41" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1632,16 +1623,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D42" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E42" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1649,16 +1640,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D43" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E43" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1666,16 +1657,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D44" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E44" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1683,16 +1674,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D45" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E45" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1700,16 +1691,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D46" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E46" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1717,16 +1708,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E47" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1734,16 +1725,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E48" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1751,16 +1742,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D49" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E49" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1768,16 +1759,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D50" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E50" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1785,16 +1776,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D51" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E51" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1805,13 +1796,13 @@
         <v>97</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D52" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E52" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1822,13 +1813,13 @@
         <v>97</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D53" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E53" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1839,13 +1830,13 @@
         <v>97</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D54" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E54" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1856,13 +1847,13 @@
         <v>97</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D55" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E55" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1873,13 +1864,13 @@
         <v>97</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D56" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E56" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1890,13 +1881,13 @@
         <v>97</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D57" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E57" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1907,13 +1898,13 @@
         <v>97</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D58" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E58" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1924,13 +1915,13 @@
         <v>97</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D59" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E59" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1941,13 +1932,13 @@
         <v>97</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D60" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E60" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1958,13 +1949,13 @@
         <v>97</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D61" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E61" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1975,13 +1966,13 @@
         <v>97</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D62" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E62" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1989,16 +1980,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D63" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E63" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2006,16 +1997,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D64" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E64" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2023,39 +2014,22 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D65" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E65" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="s">
-        <v>69</v>
-      </c>
-      <c r="B66" t="s">
-        <v>99</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D66" t="s">
-        <v>170</v>
-      </c>
-      <c r="E66" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C35" r:id="rId1"/>
-    <hyperlink ref="C45" r:id="rId2" location="sthash.zLzGBdIi.dpbs"/>
+    <hyperlink ref="C45" r:id="rId2"/>
     <hyperlink ref="C46" r:id="rId3"/>
     <hyperlink ref="C47" r:id="rId4"/>
     <hyperlink ref="C48" r:id="rId5"/>
@@ -2076,7 +2050,6 @@
     <hyperlink ref="C63" r:id="rId20"/>
     <hyperlink ref="C64" r:id="rId21"/>
     <hyperlink ref="C65" r:id="rId22"/>
-    <hyperlink ref="C66" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
